--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Cntn2</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,13 +540,13 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H2">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.091923</v>
       </c>
       <c r="O2">
-        <v>0.05273922931636309</v>
+        <v>0.05126224702220791</v>
       </c>
       <c r="P2">
-        <v>0.05273922931636309</v>
+        <v>0.0512622470222079</v>
       </c>
       <c r="Q2">
         <v>0.004402110760666668</v>
       </c>
       <c r="R2">
-        <v>0.03961899684600001</v>
+        <v>0.039618996846</v>
       </c>
       <c r="S2">
-        <v>0.05273922931636309</v>
+        <v>0.02844678072143416</v>
       </c>
       <c r="T2">
-        <v>0.05273922931636309</v>
+        <v>0.02844678072143416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H3">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3823286666666666</v>
+        <v>0.3823286666666667</v>
       </c>
       <c r="N3">
         <v>1.146986</v>
       </c>
       <c r="O3">
-        <v>0.6580633538576637</v>
+        <v>0.639634037868805</v>
       </c>
       <c r="P3">
-        <v>0.6580633538576637</v>
+        <v>0.6396340378688049</v>
       </c>
       <c r="Q3">
-        <v>0.05492813999688888</v>
+        <v>0.0549281399968889</v>
       </c>
       <c r="R3">
         <v>0.494353259972</v>
       </c>
       <c r="S3">
-        <v>0.6580633538576637</v>
+        <v>0.3549498953749866</v>
       </c>
       <c r="T3">
-        <v>0.6580633538576637</v>
+        <v>0.3549498953749865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,43 +664,43 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H4">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1673463333333333</v>
+        <v>0.0001233333333333333</v>
       </c>
       <c r="N4">
-        <v>0.502039</v>
+        <v>0.00037</v>
       </c>
       <c r="O4">
-        <v>0.2880361818778501</v>
+        <v>0.0002063360790902921</v>
       </c>
       <c r="P4">
-        <v>0.28803618187785</v>
+        <v>0.0002063360790902921</v>
       </c>
       <c r="Q4">
-        <v>0.02404220145311111</v>
+        <v>1.771897111111111E-05</v>
       </c>
       <c r="R4">
-        <v>0.216379813078</v>
+        <v>0.00015947074</v>
       </c>
       <c r="S4">
-        <v>0.2880361818778501</v>
+        <v>0.0001145013638254913</v>
       </c>
       <c r="T4">
-        <v>0.28803618187785</v>
+        <v>0.0001145013638254913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,43 +726,539 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H5">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1846373333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.553912</v>
+      </c>
+      <c r="O5">
+        <v>0.308897379029897</v>
+      </c>
+      <c r="P5">
+        <v>0.3088973790298969</v>
+      </c>
+      <c r="Q5">
+        <v>0.02652635331377778</v>
+      </c>
+      <c r="R5">
+        <v>0.238737179824</v>
+      </c>
+      <c r="S5">
+        <v>0.171415349835961</v>
+      </c>
+      <c r="T5">
+        <v>0.1714153498359609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.011717</v>
+      </c>
+      <c r="H6">
+        <v>0.035151</v>
+      </c>
+      <c r="I6">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J6">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.030641</v>
+      </c>
+      <c r="N6">
+        <v>0.091923</v>
+      </c>
+      <c r="O6">
+        <v>0.05126224702220791</v>
+      </c>
+      <c r="P6">
+        <v>0.0512622470222079</v>
+      </c>
+      <c r="Q6">
+        <v>0.000359020597</v>
+      </c>
+      <c r="R6">
+        <v>0.003231185373</v>
+      </c>
+      <c r="S6">
+        <v>0.002320018907427651</v>
+      </c>
+      <c r="T6">
+        <v>0.00232001890742765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.011717</v>
+      </c>
+      <c r="H7">
+        <v>0.035151</v>
+      </c>
+      <c r="I7">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J7">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3823286666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.146986</v>
+      </c>
+      <c r="O7">
+        <v>0.639634037868805</v>
+      </c>
+      <c r="P7">
+        <v>0.6396340378688049</v>
+      </c>
+      <c r="Q7">
+        <v>0.004479744987333334</v>
+      </c>
+      <c r="R7">
+        <v>0.04031770488600001</v>
+      </c>
+      <c r="S7">
+        <v>0.02894845910767503</v>
+      </c>
+      <c r="T7">
+        <v>0.02894845910767502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.011717</v>
+      </c>
+      <c r="H8">
+        <v>0.035151</v>
+      </c>
+      <c r="I8">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J8">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0001233333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.00037</v>
+      </c>
+      <c r="O8">
+        <v>0.0002063360790902921</v>
+      </c>
+      <c r="P8">
+        <v>0.0002063360790902921</v>
+      </c>
+      <c r="Q8">
+        <v>1.445096666666667E-06</v>
+      </c>
+      <c r="R8">
+        <v>1.300587E-05</v>
+      </c>
+      <c r="S8">
+        <v>9.338326596697572E-06</v>
+      </c>
+      <c r="T8">
+        <v>9.33832659669757E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.011717</v>
+      </c>
+      <c r="H9">
+        <v>0.035151</v>
+      </c>
+      <c r="I9">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J9">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1846373333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.553912</v>
+      </c>
+      <c r="O9">
+        <v>0.308897379029897</v>
+      </c>
+      <c r="P9">
+        <v>0.3088973790298969</v>
+      </c>
+      <c r="Q9">
+        <v>0.002163395634666667</v>
+      </c>
+      <c r="R9">
+        <v>0.019470560712</v>
+      </c>
+      <c r="S9">
+        <v>0.01398003016710796</v>
+      </c>
+      <c r="T9">
+        <v>0.01398003016710796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="F10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>0.0006746666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.002024</v>
-      </c>
-      <c r="O5">
-        <v>0.001161234948123091</v>
-      </c>
-      <c r="P5">
-        <v>0.001161234948123091</v>
-      </c>
-      <c r="Q5">
-        <v>9.69275608888889E-05</v>
-      </c>
-      <c r="R5">
-        <v>0.0008723480480000001</v>
-      </c>
-      <c r="S5">
-        <v>0.001161234948123091</v>
-      </c>
-      <c r="T5">
-        <v>0.001161234948123091</v>
+      <c r="G10">
+        <v>0.10351</v>
+      </c>
+      <c r="H10">
+        <v>0.31053</v>
+      </c>
+      <c r="I10">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J10">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030641</v>
+      </c>
+      <c r="N10">
+        <v>0.091923</v>
+      </c>
+      <c r="O10">
+        <v>0.05126224702220791</v>
+      </c>
+      <c r="P10">
+        <v>0.0512622470222079</v>
+      </c>
+      <c r="Q10">
+        <v>0.00317164991</v>
+      </c>
+      <c r="R10">
+        <v>0.02854484919</v>
+      </c>
+      <c r="S10">
+        <v>0.02049544739334609</v>
+      </c>
+      <c r="T10">
+        <v>0.02049544739334608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.10351</v>
+      </c>
+      <c r="H11">
+        <v>0.31053</v>
+      </c>
+      <c r="I11">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J11">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3823286666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.146986</v>
+      </c>
+      <c r="O11">
+        <v>0.639634037868805</v>
+      </c>
+      <c r="P11">
+        <v>0.6396340378688049</v>
+      </c>
+      <c r="Q11">
+        <v>0.03957484028666667</v>
+      </c>
+      <c r="R11">
+        <v>0.35617356258</v>
+      </c>
+      <c r="S11">
+        <v>0.2557356833861434</v>
+      </c>
+      <c r="T11">
+        <v>0.2557356833861433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.10351</v>
+      </c>
+      <c r="H12">
+        <v>0.31053</v>
+      </c>
+      <c r="I12">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J12">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0001233333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.00037</v>
+      </c>
+      <c r="O12">
+        <v>0.0002063360790902921</v>
+      </c>
+      <c r="P12">
+        <v>0.0002063360790902921</v>
+      </c>
+      <c r="Q12">
+        <v>1.276623333333333E-05</v>
+      </c>
+      <c r="R12">
+        <v>0.0001148961</v>
+      </c>
+      <c r="S12">
+        <v>8.249638866810323E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.249638866810321E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.10351</v>
+      </c>
+      <c r="H13">
+        <v>0.31053</v>
+      </c>
+      <c r="I13">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J13">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1846373333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.553912</v>
+      </c>
+      <c r="O13">
+        <v>0.308897379029897</v>
+      </c>
+      <c r="P13">
+        <v>0.3088973790298969</v>
+      </c>
+      <c r="Q13">
+        <v>0.01911181037333333</v>
+      </c>
+      <c r="R13">
+        <v>0.17200629336</v>
+      </c>
+      <c r="S13">
+        <v>0.1235019990268281</v>
+      </c>
+      <c r="T13">
+        <v>0.1235019990268281</v>
       </c>
     </row>
   </sheetData>
